--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\109702\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107582\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="OMS Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>ProductCatalog Service</t>
+  </si>
+  <si>
+    <t>Story points</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,9 +249,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,29 +575,30 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -598,8 +611,12 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -620,7 +637,9 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -642,6 +661,9 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -658,6 +680,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -674,6 +699,9 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -682,6 +710,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -690,6 +721,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -698,6 +732,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -706,6 +743,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -714,6 +752,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -722,6 +763,9 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -730,6 +774,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -738,6 +785,9 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -746,126 +796,174 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -874,7 +972,7 @@
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -883,6 +981,9 @@
       <c r="B34" t="s">
         <v>27</v>
       </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -891,6 +992,9 @@
       <c r="B35" t="s">
         <v>28</v>
       </c>
+      <c r="C35" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -899,6 +1003,9 @@
       <c r="B36" t="s">
         <v>29</v>
       </c>
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -907,6 +1014,12 @@
       <c r="B37" t="s">
         <v>30</v>
       </c>
+      <c r="C37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -915,25 +1028,33 @@
       <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>30</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="5"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -942,88 +1063,118 @@
       <c r="B43" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>32</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>33</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C45" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>34</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="C46" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>35</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="C47" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>37</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>38</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>39</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>40</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
+      </c>
+      <c r="C54" s="8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\107582\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\109546\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="OMS Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -183,6 +183,51 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Rajsekar</t>
+  </si>
+  <si>
+    <t>Michael/Ganesh</t>
+  </si>
+  <si>
+    <t>Panneer/Ashok</t>
+  </si>
+  <si>
+    <t>Master Data Preparation</t>
+  </si>
+  <si>
+    <t>Jagadeesan/Sathish</t>
+  </si>
+  <si>
+    <t>Master Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Data </t>
+  </si>
+  <si>
+    <t>API Test</t>
+  </si>
+  <si>
+    <t>API Test Case Creation - Customer Service</t>
+  </si>
+  <si>
+    <t>API Test Case Creation - EventService</t>
+  </si>
+  <si>
+    <t>API Test Case Creation - BillingService</t>
+  </si>
+  <si>
+    <t>API Test Case Creation - Mail Service</t>
+  </si>
+  <si>
+    <t>API Test Case Creation - Order Service</t>
+  </si>
+  <si>
+    <t>API Test Case Creation - Inventory Service</t>
   </si>
 </sst>
 </file>
@@ -241,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,12 +295,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,20 +633,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -637,7 +685,7 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
@@ -661,7 +709,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
@@ -680,7 +728,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="I5" s="1"/>
@@ -699,7 +747,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
     </row>
@@ -710,7 +758,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
     </row>
@@ -721,7 +769,7 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -732,7 +780,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -743,7 +791,7 @@
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -752,7 +800,7 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -763,7 +811,7 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>3</v>
       </c>
     </row>
@@ -774,7 +822,7 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>2</v>
       </c>
     </row>
@@ -785,7 +833,7 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -796,12 +844,12 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -810,7 +858,7 @@
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -819,7 +867,7 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
     </row>
@@ -830,7 +878,7 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>2</v>
       </c>
     </row>
@@ -841,7 +889,7 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -852,7 +900,7 @@
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>2</v>
       </c>
     </row>
@@ -863,7 +911,7 @@
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>2</v>
       </c>
     </row>
@@ -874,7 +922,7 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>2</v>
       </c>
     </row>
@@ -885,7 +933,7 @@
       <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -894,7 +942,7 @@
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>2</v>
       </c>
     </row>
@@ -905,7 +953,7 @@
       <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>2</v>
       </c>
     </row>
@@ -916,7 +964,7 @@
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <v>2</v>
       </c>
     </row>
@@ -927,7 +975,7 @@
       <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>2</v>
       </c>
     </row>
@@ -938,7 +986,7 @@
       <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -947,7 +995,7 @@
       <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>2</v>
       </c>
     </row>
@@ -958,12 +1006,12 @@
       <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -972,7 +1020,7 @@
       <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -981,7 +1029,7 @@
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="6">
         <v>5</v>
       </c>
     </row>
@@ -992,7 +1040,7 @@
       <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1003,7 +1051,7 @@
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1014,12 +1062,12 @@
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
@@ -1028,7 +1076,7 @@
       <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -1037,7 +1085,7 @@
       <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1048,13 +1096,13 @@
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -1063,7 +1111,7 @@
       <c r="B43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
@@ -1072,7 +1120,7 @@
       <c r="B44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1083,7 +1131,7 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1094,7 +1142,7 @@
       <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1105,13 +1153,13 @@
       <c r="B47" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -1120,7 +1168,7 @@
       <c r="B49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -1129,7 +1177,7 @@
       <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1140,7 +1188,7 @@
       <c r="B51" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1151,7 +1199,7 @@
       <c r="B52" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1162,7 +1210,7 @@
       <c r="B53" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1173,8 +1221,101 @@
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1188,13 +1329,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\109546\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\109546\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OMS Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
+    <sheet name="OMS-Service-Priority" sheetId="5" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -228,13 +229,261 @@
   </si>
   <si>
     <t>API Test Case Creation - Inventory Service</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>25/9/2017</t>
+  </si>
+  <si>
+    <t>Panneer &amp; Michael</t>
+  </si>
+  <si>
+    <t>ER diagram changes &amp; Collection fields updation</t>
+  </si>
+  <si>
+    <t>Sathish</t>
+  </si>
+  <si>
+    <t>api-gateway</t>
+  </si>
+  <si>
+    <t>customer-service</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>api-gateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inventory-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customer-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>payment-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mail-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>billing-service</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">github - Jenkins - PCF build deployment configuration for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>api-gateway</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">github - Jenkins - PCF build deployment configuration for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customer-service</t>
+    </r>
+  </si>
+  <si>
+    <t>Ashok &amp; Jagadeesan</t>
+  </si>
+  <si>
+    <t>26/9/2017</t>
+  </si>
+  <si>
+    <t>product-service</t>
+  </si>
+  <si>
+    <t>inventory-service</t>
+  </si>
+  <si>
+    <t>event-service</t>
+  </si>
+  <si>
+    <t>mail-service</t>
+  </si>
+  <si>
+    <t>order-service</t>
+  </si>
+  <si>
+    <t>payment-service</t>
+  </si>
+  <si>
+    <t>billing-service</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>oms-common-web</t>
+  </si>
+  <si>
+    <t>oms-common-security</t>
+  </si>
+  <si>
+    <t>oms-configurations-common</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,16 +514,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -282,11 +544,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,11 +578,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -633,20 +914,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1085,7 +1366,7 @@
       <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1329,242 +1610,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="13">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1574,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1586,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\109546\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Use\Javelin\OMS_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -477,6 +477,30 @@
   </si>
   <si>
     <t>oms-configurations-common</t>
+  </si>
+  <si>
+    <t>OMS-0002</t>
+  </si>
+  <si>
+    <t>Task_Name</t>
+  </si>
+  <si>
+    <t>Updating design documents with Instance, Messaging Details, Event Flow Diagram</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Panneer</t>
+  </si>
+  <si>
+    <t>Working on OMS-Common-Web</t>
+  </si>
+  <si>
+    <t>Ashok</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -581,12 +605,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,20 +938,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1623,123 +1647,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="13">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13"/>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="13">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>12</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,26 +1784,28 @@
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1792,11 +1818,11 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>79</v>
       </c>
@@ -1806,11 +1832,11 @@
       <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -1820,11 +1846,11 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>81</v>
       </c>
@@ -1834,11 +1860,11 @@
       <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>82</v>
       </c>
@@ -1848,11 +1874,11 @@
       <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>83</v>
       </c>
@@ -1862,11 +1888,11 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>84</v>
       </c>
@@ -1876,11 +1902,11 @@
       <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>85</v>
       </c>
@@ -1890,11 +1916,11 @@
       <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -1904,11 +1930,11 @@
       <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -1918,11 +1944,11 @@
       <c r="D11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>88</v>
       </c>
@@ -1932,11 +1958,11 @@
       <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -1946,11 +1972,11 @@
       <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1967,6 +1993,51 @@
         <v>76</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -1980,13 +2051,15 @@
       <c r="E26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>1</v>
       </c>
       <c r="D27" t="s">
@@ -1995,10 +2068,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -2006,10 +2079,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -2017,10 +2090,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
@@ -2028,10 +2101,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>55</v>
@@ -2039,7 +2112,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -2049,28 +2122,28 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
+      <c r="B33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="6"/>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -2078,10 +2151,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
         <v>54</v>
@@ -2089,10 +2162,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>54</v>
@@ -2100,7 +2173,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
@@ -2111,7 +2184,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -2121,25 +2194,25 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
+      <c r="B40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="6"/>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="6">
         <v>2</v>
@@ -2150,7 +2223,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="6">
         <v>2</v>
@@ -2161,7 +2234,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="6">
         <v>2</v>
@@ -2170,30 +2243,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="6">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B49" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="6">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -500,7 +500,61 @@
     <t>Ashok</t>
   </si>
   <si>
-    <t>WIP</t>
+    <t>OMS-0000</t>
+  </si>
+  <si>
+    <t>OMS-0003</t>
+  </si>
+  <si>
+    <t>Ticket No</t>
+  </si>
+  <si>
+    <t>OMS-0001</t>
+  </si>
+  <si>
+    <t>OMS-0004</t>
+  </si>
+  <si>
+    <t>OMS-0005</t>
+  </si>
+  <si>
+    <t>OMS-0006</t>
+  </si>
+  <si>
+    <t>OMS-0007</t>
+  </si>
+  <si>
+    <t>OMS-0008</t>
+  </si>
+  <si>
+    <t>OMS-0009</t>
+  </si>
+  <si>
+    <t>OMS-0010</t>
+  </si>
+  <si>
+    <t>OMS-0011</t>
+  </si>
+  <si>
+    <t>OMS-0012</t>
+  </si>
+  <si>
+    <t>OMS-0013</t>
+  </si>
+  <si>
+    <t>OMS-0014</t>
+  </si>
+  <si>
+    <t>OMS-0015</t>
+  </si>
+  <si>
+    <t>OMS-0016</t>
+  </si>
+  <si>
+    <t>OMS-0017</t>
+  </si>
+  <si>
+    <t>27/9/2017</t>
   </si>
 </sst>
 </file>
@@ -927,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1772,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,6 +1858,9 @@
       <c r="E1" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1821,6 +1878,9 @@
       <c r="E2" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1835,6 +1895,9 @@
       <c r="E3" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1849,6 +1912,9 @@
       <c r="E4" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1863,6 +1929,9 @@
       <c r="E5" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1877,6 +1946,9 @@
       <c r="E6" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1891,6 +1963,9 @@
       <c r="E7" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1905,6 +1980,9 @@
       <c r="E8" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1919,6 +1997,9 @@
       <c r="E9" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1933,6 +2014,9 @@
       <c r="E10" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1947,6 +2031,9 @@
       <c r="E11" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1961,6 +2048,9 @@
       <c r="E12" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1975,25 +2065,32 @@
       <c r="E13" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -2010,7 +2107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>104</v>
       </c>
@@ -2023,8 +2120,11 @@
       <c r="E17" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -2035,10 +2135,119 @@
         <v>108</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2055,208 +2264,189 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="6">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
         <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>27/9/2017</t>
+  </si>
+  <si>
+    <t>Search all the product based out of productId from the repository</t>
   </si>
 </sst>
 </file>
@@ -1826,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,68 +2250,71 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -2317,28 +2323,28 @@
         <v>55</v>
       </c>
       <c r="F30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>120</v>
-      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -2368,29 +2374,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="6">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>122</v>
-      </c>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
         <v>2</v>
@@ -2399,12 +2391,12 @@
         <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="6">
         <v>2</v>
@@ -2413,12 +2405,12 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
@@ -2427,25 +2419,39 @@
         <v>53</v>
       </c>
       <c r="F39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>126</v>
       </c>
     </row>

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OMS Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="OMS-Service-Priority" sheetId="5" r:id="rId2"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sprint 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId5"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId3"/>
+    <sheet name="Task_Breakup details" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="182">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -177,9 +176,6 @@
     <t>Fetch all the events based out of eventName</t>
   </si>
   <si>
-    <t>ProductCatalog Service</t>
-  </si>
-  <si>
     <t>Story points</t>
   </si>
   <si>
@@ -190,9 +186,6 @@
   </si>
   <si>
     <t>Rajsekar</t>
-  </si>
-  <si>
-    <t>Michael/Ganesh</t>
   </si>
   <si>
     <t>Panneer/Ashok</t>
@@ -559,12 +552,216 @@
   <si>
     <t>Search all the product based out of productId from the repository</t>
   </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Panneer &amp;Ashok</t>
+  </si>
+  <si>
+    <t>Panneer&amp;Ashok</t>
+  </si>
+  <si>
+    <t>OMS-0008-11</t>
+  </si>
+  <si>
+    <t>Addressed review comments for the task</t>
+  </si>
+  <si>
+    <t>OMS-0018</t>
+  </si>
+  <si>
+    <t>OMS-0019</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Estimated Hrs</t>
+  </si>
+  <si>
+    <t>Actual Hrs</t>
+  </si>
+  <si>
+    <t>Remaining Hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV Team - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/09/17 to 6/10/17 </t>
+  </si>
+  <si>
+    <t>Unit Test Case</t>
+  </si>
+  <si>
+    <t>Panneer &amp; Ashok</t>
+  </si>
+  <si>
+    <t>Update the product information in the repository</t>
+  </si>
+  <si>
+    <t>"OMS-Common-Web" development and implementation</t>
+  </si>
+  <si>
+    <t>Mongo Team -</t>
+  </si>
+  <si>
+    <t>25/09/17 to 6/10/17</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">github - Jenkins - PCF build deployment configuration for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product-service</t>
+    </r>
+  </si>
+  <si>
+    <t>Jagadeesan &amp; Sathish</t>
+  </si>
+  <si>
+    <r>
+      <t>github - Jenkins - PCF build deployment configuration for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> common-web</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">github - Jenkins - PCF build deployment configuration for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inventory-service</t>
+    </r>
+  </si>
+  <si>
+    <t>Jenkins - HipChat configuration</t>
+  </si>
+  <si>
+    <t>Jenkins Automatic merge from "develop" to "master"</t>
+  </si>
+  <si>
+    <t>Developing queries with DEV team in needed places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Team  - </t>
+  </si>
+  <si>
+    <t>3/10/17 to 6/10/17</t>
+  </si>
+  <si>
+    <t>Understanding OMS schema and microservices</t>
+  </si>
+  <si>
+    <t>Jagan &amp; Bala</t>
+  </si>
+  <si>
+    <t>Environment setup</t>
+  </si>
+  <si>
+    <t>Automation structure design for entire OMS Project</t>
+  </si>
+  <si>
+    <t>Groovy Configuration - "customer-service"</t>
+  </si>
+  <si>
+    <t>Acceptance test case for CRUD Operations for "customer-service"</t>
+  </si>
+  <si>
+    <t>Acceptance test case for CRUD Operations for "product-service"</t>
+  </si>
+  <si>
+    <t>Acceptance test case for CRUD Operations for "inventory-service"</t>
+  </si>
+  <si>
+    <t>api-gateway development and implementation</t>
+  </si>
+  <si>
+    <t>Config server configuration</t>
+  </si>
+  <si>
+    <t>oms-common-web service creation</t>
+  </si>
+  <si>
+    <t>jenkins configuration</t>
+  </si>
+  <si>
+    <t>Integration with other services</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>"customer-service" endpoint - 1st Round of testing</t>
+  </si>
+  <si>
+    <t>Groovy Configuration for "product-service"</t>
+  </si>
+  <si>
+    <t>Groovy Configuration for "inventory-service"</t>
+  </si>
+  <si>
+    <t>DEV Team - Continues</t>
+  </si>
+  <si>
+    <t>Groovy Configuration for "mail-service"</t>
+  </si>
+  <si>
+    <t>Configuration of mail service</t>
+  </si>
+  <si>
+    <t>Product Service</t>
+  </si>
+  <si>
+    <t>Viewing a customer, based out of customer Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/10/2017 - </t>
+  </si>
+  <si>
+    <t>DEV Team</t>
+  </si>
+  <si>
+    <t>QA Team</t>
+  </si>
+  <si>
+    <t>Mongo Team</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +799,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -617,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -640,11 +844,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -666,8 +920,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="A39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,20 +1313,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1022,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1047,8 +1365,8 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
+      <c r="C3" s="8">
+        <v>3</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1218,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -1392,7 +1710,7 @@
         <v>27</v>
       </c>
       <c r="C34" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1918,7 @@
         <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" s="6">
         <v>2</v>
@@ -1611,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,7 +1937,7 @@
         <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="6">
         <v>3</v>
@@ -1630,7 +1948,7 @@
         <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="6">
         <v>3</v>
@@ -1641,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C62" s="6">
         <v>3</v>
@@ -1652,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" s="6">
         <v>3</v>
@@ -1663,7 +1981,7 @@
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" s="6">
         <v>3</v>
@@ -1674,7 +1992,7 @@
         <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="6">
         <v>3</v>
@@ -1693,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,63 +2023,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -1770,16 +2098,18 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="11">
         <v>8</v>
@@ -1788,16 +2118,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="41" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="11">
         <v>10</v>
@@ -1806,7 +2138,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="11">
         <v>11</v>
@@ -1815,7 +2147,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="11">
         <v>12</v>
@@ -1829,630 +2161,718 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="F3" t="s">
-        <v>112</v>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
+      <c r="F11" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>102</v>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>118</v>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>103</v>
+      <c r="F27" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>116</v>
+      <c r="A30" s="13">
+        <v>42835</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="6">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>42896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="6">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" t="s">
-        <v>126</v>
+      <c r="D50" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2463,26 +2883,1835 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="18">
+        <v>8</v>
+      </c>
+      <c r="F4" s="18">
+        <v>8</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="32">
+        <v>8</v>
+      </c>
+      <c r="F6" s="32">
+        <v>8</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="18">
+        <v>8</v>
+      </c>
+      <c r="F16" s="18">
+        <v>8</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="18">
+        <v>8</v>
+      </c>
+      <c r="F17" s="18">
+        <v>8</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="18">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18">
+        <v>8</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="26">
+        <v>4</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
+        <v>4</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="20">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="18">
+        <v>16</v>
+      </c>
+      <c r="F21" s="18">
+        <v>16</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
+        <v>8</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18">
+        <v>4</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>7</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="18">
+        <v>8</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18">
+        <v>4</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18">
+        <v>4</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>8</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="18">
+        <v>16</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18">
+        <v>8</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>9</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="18">
+        <v>8</v>
+      </c>
+      <c r="F30" s="18">
+        <v>8</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18">
+        <v>4</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18">
+        <v>4</v>
+      </c>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>10</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18">
+        <v>4</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>11</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="18">
+        <v>4</v>
+      </c>
+      <c r="F35" s="18">
+        <v>4</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>12</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="18">
+        <v>8</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18">
+        <v>4</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18">
+        <v>4</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>13</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="18">
+        <v>8</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18">
+        <v>4</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18">
+        <v>4</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>14</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="18">
+        <v>8</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18">
+        <v>4</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18">
+        <v>4</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>15</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="18">
+        <v>2</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="18">
+        <v>8</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18">
+        <v>4</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18">
+        <v>4</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>16</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18">
+        <v>4</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>17</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="18">
+        <v>4</v>
+      </c>
+      <c r="F50" s="18">
+        <v>4</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>18</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="18">
+        <v>3</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="18">
+        <v>8</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18">
+        <v>6</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>19</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="18">
+        <v>8</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18">
+        <v>6</v>
+      </c>
+      <c r="G55" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="18">
+        <v>2</v>
+      </c>
+      <c r="G56" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>20</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="18">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="18">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18">
+        <v>6</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="18">
+        <v>2</v>
+      </c>
+      <c r="G59" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>21</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="18">
+        <v>2</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="18">
+        <v>8</v>
+      </c>
+      <c r="F60" s="18">
+        <v>6</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18">
+        <v>2</v>
+      </c>
+      <c r="G61" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="18">
+        <v>4</v>
+      </c>
+      <c r="F62" s="18">
+        <v>4</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>22</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="18">
+        <v>1</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="18">
+        <v>8</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>23</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="18">
+        <v>2</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18">
+        <v>6</v>
+      </c>
+      <c r="G64" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18">
+        <v>2</v>
+      </c>
+      <c r="G65" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="18">
+        <v>6</v>
+      </c>
+      <c r="F66" s="18">
+        <v>0</v>
+      </c>
+      <c r="G66" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>24</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="18">
+        <v>12</v>
+      </c>
+      <c r="F68" s="18">
+        <v>12</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>25</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="18">
+        <v>2</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18">
+        <v>3</v>
+      </c>
+      <c r="G69" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>26</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18">
+        <v>6</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>27</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18">
+        <v>3</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>28</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="18">
+        <v>16</v>
+      </c>
+      <c r="F72" s="18">
+        <v>8</v>
+      </c>
+      <c r="G72" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>29</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="18">
+        <v>2</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>30</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="18">
+        <v>3</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="32">
+        <v>12</v>
+      </c>
+      <c r="F74" s="32">
+        <v>12</v>
+      </c>
+      <c r="G74" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>31</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="18">
+        <v>1</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>32</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="18">
+        <v>1</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="40">
+        <v>8</v>
+      </c>
+      <c r="F79" s="40">
+        <v>8</v>
+      </c>
+      <c r="G79" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>33</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="18">
+        <v>1</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>34</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="18">
+        <v>1</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>35</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="18">
+        <v>1</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>36</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="18">
+        <v>1</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
+        <v>37</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>38</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <v>39</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="18">
+        <v>1</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" s="18">
+        <v>8</v>
+      </c>
+      <c r="F89" s="18">
+        <v>8</v>
+      </c>
+      <c r="G89" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>40</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="22">
+        <v>1</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" s="18">
+        <v>8</v>
+      </c>
+      <c r="F90" s="18">
+        <v>4</v>
+      </c>
+      <c r="G90" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="28">
+        <v>41</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="22">
+        <v>1</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" s="18">
+        <v>8</v>
+      </c>
+      <c r="F91" s="18">
+        <v>8</v>
+      </c>
+      <c r="G91" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="28">
+        <v>42</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="22">
+        <v>2</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="22">
+        <v>16</v>
+      </c>
+      <c r="F92" s="22">
+        <v>8</v>
+      </c>
+      <c r="G92" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="29">
+        <v>43</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="18">
+        <v>1</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="18">
+        <v>4</v>
+      </c>
+      <c r="F95" s="18">
+        <v>4</v>
+      </c>
+      <c r="G95" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="29">
+        <v>44</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="18">
+        <v>2</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" s="18">
+        <v>8</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18">
+        <v>4</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18">
+        <v>4</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
+        <v>45</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="29"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="29"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="29"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="29"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="29"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="29"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="29"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="29"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="29"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="29"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="29"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="E79:E84"/>
+    <mergeCell ref="F79:F84"/>
+    <mergeCell ref="G79:G84"/>
+    <mergeCell ref="G6:G14"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="F6:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OMS Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="183">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -755,6 +755,9 @@
   </si>
   <si>
     <t>Mongo Team</t>
+  </si>
+  <si>
+    <t>OMS-0020</t>
   </si>
 </sst>
 </file>
@@ -898,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,6 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="A39:C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
@@ -2161,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,49 +2795,76 @@
         <v>42896</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="43">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="43">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>74</v>
+      <c r="A43" s="13">
+        <v>42988</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="D44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="6"/>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
@@ -2841,37 +2874,116 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
-        <v>56</v>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="6">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>124</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C84" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="6">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D84" s="6">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>115</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D86" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2885,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sprint_Planning_Document.xlsx
+++ b/Sprint_Planning_Document.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7470" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OMS Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="198">
   <si>
     <t>Order Management System Sprint Planning Document</t>
   </si>
@@ -758,6 +758,64 @@
   </si>
   <si>
     <t>OMS-0020</t>
+  </si>
+  <si>
+    <t>OMS-0021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project creation, configuration, github code checkin for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oms-common-security</t>
+    </r>
+  </si>
+  <si>
+    <t>OMS-0022</t>
+  </si>
+  <si>
+    <t>Implementation of common security</t>
+  </si>
+  <si>
+    <t>Unit Test and Acceptance test case for "product-service"</t>
+  </si>
+  <si>
+    <t>Micheal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1 Sprint Activity </t>
+  </si>
+  <si>
+    <t>V6 Training</t>
+  </si>
+  <si>
+    <t>OMS - Sprint Activity - Inventory service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/10/2017 - </t>
+  </si>
+  <si>
+    <t>OMS-0023</t>
+  </si>
+  <si>
+    <t>OMS-0024</t>
+  </si>
+  <si>
+    <t>Ashok&amp;Panneer</t>
+  </si>
+  <si>
+    <t>Without Unit Testing</t>
+  </si>
+  <si>
+    <t>Lazy loading for "customer-service"</t>
   </si>
 </sst>
 </file>
@@ -901,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -958,8 +1016,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,20 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C15"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,20 +1389,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2018,7 +2088,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2115,7 @@
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2056,7 +2126,7 @@
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2067,7 +2137,7 @@
       <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2078,7 +2148,7 @@
       <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2089,7 +2159,7 @@
       <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2100,7 +2170,9 @@
       <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="30" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2109,7 +2181,7 @@
       <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2129,7 +2201,7 @@
       <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="30" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2167,15 +2239,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
@@ -2568,7 +2640,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2585,7 +2657,7 @@
         <v>103</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2602,7 +2674,7 @@
         <v>103</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,7 +2696,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,7 +2713,7 @@
         <v>52</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2658,7 +2730,7 @@
         <v>52</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,7 +2752,7 @@
         <v>129</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2697,10 +2769,10 @@
         <v>103</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>132</v>
       </c>
@@ -2717,7 +2789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>119</v>
       </c>
@@ -2731,15 +2803,15 @@
         <v>103</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>42865</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>114</v>
       </c>
@@ -2756,7 +2828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>133</v>
       </c>
@@ -2770,10 +2842,10 @@
         <v>106</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>120</v>
       </c>
@@ -2787,36 +2859,39 @@
         <v>103</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>42896</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>121</v>
       </c>
       <c r="C40" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="32">
         <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="C41" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="32">
         <v>1</v>
       </c>
       <c r="E41" t="s">
@@ -2826,80 +2901,198 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>42988</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>132</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="6">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="D51" s="47">
+        <v>1</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
+      <c r="D52" s="47">
+        <v>1</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="46"/>
+      <c r="C53" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="47">
+        <v>1</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="9"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
@@ -2995,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,6 +3203,7 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3090,115 +3284,115 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="40">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="32">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="40">
         <v>8</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="40">
         <v>8</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -3825,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3897,7 +4091,7 @@
       <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="24" t="s">
         <v>169</v>
       </c>
@@ -3912,7 +4106,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="11" t="s">
         <v>141</v>
       </c>
@@ -3923,11 +4117,11 @@
         <v>2</v>
       </c>
       <c r="G59" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="23">
+      <c r="A60" s="33">
         <v>21</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -3942,15 +4136,11 @@
       <c r="E60" s="18">
         <v>8</v>
       </c>
-      <c r="F60" s="18">
-        <v>6</v>
-      </c>
-      <c r="G60" s="18">
-        <v>0</v>
-      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="24" t="s">
         <v>169</v>
       </c>
@@ -3958,33 +4148,29 @@
       <c r="D61" s="11"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C62" s="18"/>
-      <c r="D62" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="18">
-        <v>4</v>
-      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="23">
+      <c r="A63" s="33">
         <v>22</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -3997,136 +4183,128 @@
         <v>103</v>
       </c>
       <c r="E63" s="18">
+        <v>4</v>
+      </c>
+      <c r="F63" s="18">
+        <v>4</v>
+      </c>
+      <c r="G63" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <v>23</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="18">
+        <v>2</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="18">
         <v>8</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
-        <v>23</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="18">
-        <v>2</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18">
         <v>6</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G66" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18">
-        <v>2</v>
-      </c>
-      <c r="G65" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="11" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="18">
-        <v>6</v>
-      </c>
-      <c r="F66" s="18">
-        <v>0</v>
-      </c>
-      <c r="G66" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="23">
-        <v>24</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="11"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="F67" s="18">
+        <v>2</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="33">
+        <v>24</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>162</v>
+      </c>
       <c r="C68" s="11"/>
-      <c r="D68" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="D68" s="11"/>
       <c r="E68" s="18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F68" s="18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G68" s="18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="23">
-        <v>25</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="18">
-        <v>2</v>
-      </c>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="18">
-        <v>3</v>
-      </c>
-      <c r="G69" s="18">
-        <v>0</v>
-      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
-        <v>26</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="18"/>
+      <c r="A70" s="33">
+        <v>25</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="18">
+        <v>2</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="18">
+        <v>12</v>
+      </c>
       <c r="F70" s="18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G70" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
-        <v>27</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="18"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="18"/>
       <c r="F71" s="18">
@@ -4137,175 +4315,175 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="33">
+        <v>26</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18">
+        <v>6</v>
+      </c>
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <v>27</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18">
+        <v>3</v>
+      </c>
+      <c r="G73" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="33">
         <v>28</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B74" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="11" t="s">
+      <c r="C74" s="18"/>
+      <c r="D74" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E74" s="18">
         <v>16</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F74" s="18">
         <v>8</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G74" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
         <v>29</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C73" s="18">
-        <v>2</v>
-      </c>
-      <c r="D73" s="11" t="s">
+      <c r="C75" s="18">
+        <v>2</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
         <v>30</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C76" s="18">
         <v>3</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D76" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E76" s="39">
         <v>12</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F76" s="39">
         <v>12</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G76" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
         <v>31</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="18">
-        <v>1</v>
-      </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="C77" s="18">
+        <v>1</v>
+      </c>
+      <c r="D77" s="38"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
         <v>32</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B78" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="18">
-        <v>1</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="C78" s="18">
+        <v>1</v>
+      </c>
       <c r="D78" s="11"/>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E79" s="40">
-        <v>8</v>
-      </c>
-      <c r="F79" s="40">
-        <v>8</v>
-      </c>
-      <c r="G79" s="40">
-        <v>0</v>
-      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
-        <v>33</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="18">
-        <v>1</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
+      <c r="A80" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
-        <v>34</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="18">
-        <v>1</v>
-      </c>
+      <c r="A81" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
+      <c r="E81" s="39">
+        <v>8</v>
+      </c>
+      <c r="F81" s="39">
+        <v>8</v>
+      </c>
+      <c r="G81" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
-        <v>35</v>
+      <c r="A82" s="33">
+        <v>33</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C82" s="18">
         <v>1</v>
@@ -4313,16 +4491,16 @@
       <c r="D82" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
-        <v>36</v>
+      <c r="A83" s="33">
+        <v>34</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C83" s="18">
         <v>1</v>
@@ -4330,127 +4508,115 @@
       <c r="D83" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
-        <v>37</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="22">
+      <c r="A84" s="33">
+        <v>35</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="18">
         <v>1</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="23">
+      <c r="A85" s="33">
+        <v>36</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="18">
+        <v>1</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
+        <v>37</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="22">
+        <v>1</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
         <v>38</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="22">
-        <v>2</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="C87" s="22">
+        <v>2</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="23">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
         <v>39</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B91" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="18">
-        <v>1</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E89" s="18">
-        <v>8</v>
-      </c>
-      <c r="F89" s="18">
-        <v>8</v>
-      </c>
-      <c r="G89" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="23">
-        <v>40</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="22">
-        <v>1</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="E90" s="18">
-        <v>8</v>
-      </c>
-      <c r="F90" s="18">
-        <v>4</v>
-      </c>
-      <c r="G90" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="28">
-        <v>41</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="22">
+      <c r="C91" s="18">
         <v>1</v>
       </c>
       <c r="D91" s="11" t="s">
@@ -4467,98 +4633,110 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
+      <c r="A92" s="23">
+        <v>40</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" s="18">
+        <v>8</v>
+      </c>
+      <c r="F92" s="18">
+        <v>4</v>
+      </c>
+      <c r="G92" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="28">
+        <v>41</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="22">
+        <v>1</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E93" s="18">
+        <v>8</v>
+      </c>
+      <c r="F93" s="18">
+        <v>8</v>
+      </c>
+      <c r="G93" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="28">
         <v>42</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B94" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C92" s="22">
-        <v>2</v>
-      </c>
-      <c r="D92" s="21" t="s">
+      <c r="C94" s="22">
+        <v>2</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E94" s="22">
         <v>16</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F94" s="22">
         <v>8</v>
       </c>
-      <c r="G92" s="22">
+      <c r="G94" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="29">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="29">
         <v>43</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B97" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C95" s="18">
-        <v>1</v>
-      </c>
-      <c r="D95" s="11" t="s">
+      <c r="C97" s="18">
+        <v>1</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E97" s="18">
         <v>4</v>
       </c>
-      <c r="F95" s="18">
-        <v>4</v>
-      </c>
-      <c r="G95" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="29">
-        <v>44</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C96" s="18">
-        <v>2</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E96" s="18">
-        <v>8</v>
-      </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="18"/>
       <c r="F97" s="18">
         <v>4</v>
       </c>
@@ -4567,34 +4745,57 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="29">
+        <v>44</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="18">
+        <v>2</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="18">
+        <v>8</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18">
+        <v>4</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18">
+      <c r="C100" s="18"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18">
         <v>4</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G100" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="42" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
         <v>178</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -4604,8 +4805,8 @@
       <c r="G102" s="11"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="29">
-        <v>45</v>
+      <c r="A103" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -4616,107 +4817,166 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="18">
+        <v>1</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="18">
+        <v>4</v>
+      </c>
+      <c r="F104" s="18">
+        <v>4</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" s="18">
+        <v>3</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="18">
+        <v>16</v>
+      </c>
+      <c r="F105" s="18">
+        <v>4</v>
+      </c>
+      <c r="G105" s="18">
+        <v>8</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
-      <c r="B106" s="11"/>
+      <c r="B106" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="D106" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106" s="18">
+        <v>8</v>
+      </c>
+      <c r="F106" s="18">
+        <v>8</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="A108" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
-      <c r="B109" s="11"/>
+      <c r="B109" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="D109" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E109" s="18">
+        <v>3</v>
+      </c>
+      <c r="F109" s="18">
+        <v>3</v>
+      </c>
+      <c r="G109" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="D110" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E110" s="18">
+        <v>1</v>
+      </c>
+      <c r="F110" s="18">
+        <v>1</v>
+      </c>
+      <c r="G110" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
-      <c r="B111" s="11"/>
+      <c r="B111" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="D111" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="18">
+        <v>4</v>
+      </c>
+      <c r="F111" s="18">
+        <v>4</v>
+      </c>
+      <c r="G111" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="31" t="s">
+        <v>192</v>
+      </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -4724,8 +4984,10 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -4733,95 +4995,224 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C117" s="18">
+        <v>3</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" s="35">
+        <v>16</v>
+      </c>
+      <c r="F117" s="35">
+        <v>12</v>
+      </c>
+      <c r="G117" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="18">
+        <v>1</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E118" s="35">
+        <v>2</v>
+      </c>
+      <c r="F118" s="35">
+        <v>2</v>
+      </c>
+      <c r="G118" s="35">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="18">
+        <v>3</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" s="40">
+        <v>6</v>
+      </c>
+      <c r="F119" s="40">
+        <v>6</v>
+      </c>
+      <c r="G119" s="40">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="B120" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="18">
+        <v>2</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="29"/>
+      <c r="B121" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="18">
+        <v>1</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="18">
+        <v>1</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="18">
+        <v>1</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E123" s="34">
+        <v>8</v>
+      </c>
+      <c r="F123" s="34">
+        <v>8</v>
+      </c>
+      <c r="G123" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="29"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="29"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="E79:E84"/>
-    <mergeCell ref="F79:F84"/>
-    <mergeCell ref="G79:G84"/>
+  <mergeCells count="16">
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="F119:F122"/>
+    <mergeCell ref="G119:G122"/>
     <mergeCell ref="G6:G14"/>
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="C6:C14"/>
     <mergeCell ref="D6:D14"/>
     <mergeCell ref="E6:E14"/>
     <mergeCell ref="F6:F14"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="E81:E86"/>
+    <mergeCell ref="F81:F86"/>
+    <mergeCell ref="G81:G86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
